--- a/MFE_TEST.xlsx
+++ b/MFE_TEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Reken\PYTHON\RFEM_Python_Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8B13B5-9B8B-4822-964E-FB6AA4D1BCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C36BA68D-3C95-46B7-B298-1D756E8B7B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9996" xr2:uid="{5621D1FF-8F01-46CD-A209-699F536C719E}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9996" xr2:uid="{5621D1FF-8F01-46CD-A209-699F536C719E}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,65 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>IPE 80</t>
+  </si>
+  <si>
+    <t>IPE 100</t>
+  </si>
+  <si>
+    <t>IPE 120</t>
+  </si>
+  <si>
+    <t>IPE 140</t>
+  </si>
+  <si>
+    <t>IPE 160</t>
+  </si>
+  <si>
+    <t>IPE 180</t>
+  </si>
+  <si>
+    <t>IPE 200</t>
+  </si>
+  <si>
+    <t>IPE 220</t>
+  </si>
+  <si>
+    <t>IPE 240</t>
+  </si>
+  <si>
+    <t>IPE 270</t>
+  </si>
+  <si>
+    <t>IPE 300</t>
+  </si>
+  <si>
+    <t>IPE 330</t>
+  </si>
+  <si>
+    <t>IPE 360</t>
+  </si>
+  <si>
+    <t>IPE 400</t>
+  </si>
+  <si>
+    <t>IPE 450</t>
+  </si>
+  <si>
+    <t>IPE 500</t>
+  </si>
+  <si>
+    <t>IPE 550</t>
+  </si>
+  <si>
+    <t>IPE 600</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,55 +441,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F10175-71A2-4184-B8EE-3903F78AE564}">
-  <dimension ref="B1:B9"/>
+  <dimension ref="A2:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2">
+      <c r="B3">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3">
+      <c r="B4">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4">
+      <c r="B5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5">
+      <c r="B6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6">
+      <c r="B7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7">
+      <c r="B8">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8">
+      <c r="B9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9">
+      <c r="B10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1.9E-2</v>
       </c>
     </row>
   </sheetData>

--- a/MFE_TEST.xlsx
+++ b/MFE_TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Reken\PYTHON\RFEM_Python_Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C36BA68D-3C95-46B7-B298-1D756E8B7B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D3B6F3-5244-4BA7-9C7B-9150F646A227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9996" xr2:uid="{5621D1FF-8F01-46CD-A209-699F536C719E}"/>
   </bookViews>
@@ -36,60 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>IPE 80</t>
   </si>
   <si>
-    <t>IPE 100</t>
-  </si>
-  <si>
-    <t>IPE 120</t>
-  </si>
-  <si>
-    <t>IPE 140</t>
-  </si>
-  <si>
-    <t>IPE 160</t>
-  </si>
-  <si>
-    <t>IPE 180</t>
-  </si>
-  <si>
-    <t>IPE 200</t>
-  </si>
-  <si>
-    <t>IPE 220</t>
-  </si>
-  <si>
-    <t>IPE 240</t>
-  </si>
-  <si>
-    <t>IPE 270</t>
-  </si>
-  <si>
-    <t>IPE 300</t>
-  </si>
-  <si>
-    <t>IPE 330</t>
-  </si>
-  <si>
-    <t>IPE 360</t>
-  </si>
-  <si>
-    <t>IPE 400</t>
-  </si>
-  <si>
-    <t>IPE 450</t>
-  </si>
-  <si>
-    <t>IPE 500</t>
-  </si>
-  <si>
-    <t>IPE 550</t>
-  </si>
-  <si>
-    <t>IPE 600</t>
+    <t>CrossSection</t>
+  </si>
+  <si>
+    <t>Uz;max</t>
+  </si>
+  <si>
+    <t>[mm]</t>
+  </si>
+  <si>
+    <t>UCmax</t>
+  </si>
+  <si>
+    <t>[-]</t>
   </si>
 </sst>
 </file>
@@ -441,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F10175-71A2-4184-B8EE-3903F78AE564}">
-  <dimension ref="A2:B19"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -449,148 +413,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
       <c r="B3">
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>1.9E-2</v>
+        <v>166.7788028717041</v>
+      </c>
+      <c r="C3">
+        <v>3.2890000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/MFE_TEST.xlsx
+++ b/MFE_TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Reken\PYTHON\RFEM_Python_Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D3B6F3-5244-4BA7-9C7B-9150F646A227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0963E53F-1575-404B-8F7C-F174F15BE8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9996" xr2:uid="{5621D1FF-8F01-46CD-A209-699F536C719E}"/>
   </bookViews>
@@ -437,10 +437,10 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>166.7788028717041</v>
+        <v>10.485869832336903</v>
       </c>
       <c r="C3">
-        <v>3.2890000000000001</v>
+        <v>1.0489999999999999</v>
       </c>
     </row>
   </sheetData>
